--- a/Report_01/kadai3.xlsx
+++ b/Report_01/kadai3.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,33 +8,78 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daichi\Git\simulation\Report_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A41D8084-0D5E-4FB0-A2B2-EACFA3211C3A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E809F4CC-BBD0-485D-86BA-AA50FBB43E25}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="h0.1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>解析解</t>
+    <rPh sb="0" eb="2">
+      <t>カイセキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>数値解 (h=0.1)</t>
+    <rPh sb="0" eb="3">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>数値解 (h=0.05)</t>
+    <rPh sb="0" eb="3">
+      <t>スウチカイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
   <si>
     <t>オイラー法</t>
+    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>ホイン法</t>
+    <rPh sb="3" eb="4">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>ルンゲ・クッタ法</t>
+    <rPh sb="7" eb="8">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -672,6 +717,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -681,6 +731,1443 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>解析解</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.54999999999999905</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0512710963760241</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1051709180756477</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1618342427282831</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2214027581601699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2840254166877414</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3498588075760032</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4190675485932571</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4918246976412703</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5683121854901689</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6487212707001264</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7332530178673935</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8221188003905089</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9155408290138962</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0137527074704766</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.1170000166126748</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.2255409284924679</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.3396468519259908</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.4596031111569499</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.585709659315846</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.7182818284590451</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E124-4AAA-8682-B34DB2AF1008}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>数値解 (h=0.1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.54999999999999905</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4641</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6105100000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7715609999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9487171000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1435888099999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.3579476910000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5937424601000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E124-4AAA-8682-B34DB2AF1008}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>数値解 (h=0.05)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.54999999999999905</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1576249999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.21550625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2762815624999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.340095640625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.40710042265625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4774554437890599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.55132821597851</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.62889462677744</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.71033935811631</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7958563260221201</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.88564914232323</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.97993159943939</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0789281794113599</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1828745883819298</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.29201831780103</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.4066192336910799</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.5269501953756301</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.65329770514442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E124-4AAA-8682-B34DB2AF1008}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="506003088"/>
+        <c:axId val="301291944"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="506003088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>t</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.95125358692157791"/>
+              <c:y val="0.86037831477961801"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="301291944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="301291944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>u</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9444444444444445E-2"/>
+              <c:y val="1.9714202391367744E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="506003088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>468629</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00FE94EF-164D-45BF-84C5-74AAD61203E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -979,800 +2466,936 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="K1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A2">
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3">
         <v>0</v>
       </c>
-      <c r="B2">
-        <f>EXP(A2)</f>
+      <c r="B3">
+        <f t="shared" ref="B3:B23" si="0">EXP(A3)</f>
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <f>EXP(F2)</f>
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <f>EXP(K2)</f>
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4">
         <v>0.05</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B22" si="0">EXP(A3)</f>
-        <v>1.0512710963760241</v>
-      </c>
-      <c r="D3">
-        <v>1.05</v>
-      </c>
-      <c r="F3">
-        <v>0.05</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G22" si="1">EXP(F3)</f>
-        <v>1.0512710963760241</v>
-      </c>
-      <c r="I3">
-        <v>1.05125</v>
-      </c>
-      <c r="K3">
-        <v>0.05</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L22" si="2">EXP(K3)</f>
-        <v>1.0512710963760241</v>
-      </c>
-      <c r="N3">
-        <v>1.0512710937500001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>0.1</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
+        <v>1.0512710963760241</v>
+      </c>
+      <c r="D4">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>0.1</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
         <v>1.1051709180756477</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>1.1025</v>
       </c>
-      <c r="F4">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>0.15</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1.1618342427282831</v>
+      </c>
+      <c r="D6">
+        <v>1.1576249999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>0.2</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1.2214027581601699</v>
+      </c>
+      <c r="C7">
+        <v>1.21</v>
+      </c>
+      <c r="D7">
+        <v>1.21550625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>0.25</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1.2840254166877414</v>
+      </c>
+      <c r="D8">
+        <v>1.2762815624999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>0.3</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1.3498588075760032</v>
+      </c>
+      <c r="C9">
+        <v>1.331</v>
+      </c>
+      <c r="D9">
+        <v>1.340095640625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>0.35</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>1.4190675485932571</v>
+      </c>
+      <c r="D10">
+        <v>1.40710042265625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>0.4</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>1.4918246976412703</v>
+      </c>
+      <c r="C11">
+        <v>1.4641</v>
+      </c>
+      <c r="D11">
+        <v>1.4774554437890599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>0.45</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>1.5683121854901689</v>
+      </c>
+      <c r="D12">
+        <v>1.55132821597851</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>0.499999999999999</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>1.6487212707001264</v>
+      </c>
+      <c r="C13">
+        <v>1.6105100000000001</v>
+      </c>
+      <c r="D13">
+        <v>1.62889462677744</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>0.54999999999999905</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>1.7332530178673935</v>
+      </c>
+      <c r="D14">
+        <v>1.71033935811631</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>0.6</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>1.8221188003905089</v>
+      </c>
+      <c r="C15">
+        <v>1.7715609999999999</v>
+      </c>
+      <c r="D15">
+        <v>1.7958563260221201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>0.65</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>1.9155408290138962</v>
+      </c>
+      <c r="D16">
+        <v>1.88564914232323</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>0.7</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>2.0137527074704766</v>
+      </c>
+      <c r="C17">
+        <v>1.9487171000000001</v>
+      </c>
+      <c r="D17">
+        <v>1.97993159943939</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>0.75</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>2.1170000166126748</v>
+      </c>
+      <c r="D18">
+        <v>2.0789281794113599</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>0.8</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>2.2255409284924679</v>
+      </c>
+      <c r="C19">
+        <v>2.1435888099999998</v>
+      </c>
+      <c r="D19">
+        <v>2.1828745883819298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>0.85</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>2.3396468519259908</v>
+      </c>
+      <c r="D20">
+        <v>2.29201831780103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>0.9</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>2.4596031111569499</v>
+      </c>
+      <c r="C21">
+        <v>2.3579476910000001</v>
+      </c>
+      <c r="D21">
+        <v>2.4066192336910799</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>0.95</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>2.585709659315846</v>
+      </c>
+      <c r="D22">
+        <v>2.5269501953756301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>2.7182818284590451</v>
+      </c>
+      <c r="C23">
+        <v>2.5937424601000001</v>
+      </c>
+      <c r="D23">
+        <v>2.65329770514442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <f>EXP(A27)</f>
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>0.05</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28:B47" si="1">EXP(A28)</f>
+        <v>1.0512710963760241</v>
+      </c>
+      <c r="D28">
+        <v>1.05125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29">
         <v>0.1</v>
       </c>
-      <c r="G4">
+      <c r="B29">
         <f t="shared" si="1"/>
         <v>1.1051709180756477</v>
       </c>
-      <c r="H4">
+      <c r="C29">
         <v>1.105</v>
       </c>
-      <c r="I4">
+      <c r="D29">
         <v>1.1051265625</v>
       </c>
-      <c r="K4">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>0.15</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>1.1618342427282831</v>
+      </c>
+      <c r="D30">
+        <v>1.16176429882812</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>0.2</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>1.2214027581601699</v>
+      </c>
+      <c r="C31">
+        <v>1.221025</v>
+      </c>
+      <c r="D31">
+        <v>1.2213047191430599</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>0.25</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>1.2840254166877414</v>
+      </c>
+      <c r="D32">
+        <v>1.28389658599914</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>0.3</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>1.3498588075760032</v>
+      </c>
+      <c r="C33">
+        <v>1.349232625</v>
+      </c>
+      <c r="D33">
+        <v>1.3496962860316</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>0.35</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>1.4190675485932571</v>
+      </c>
+      <c r="D34">
+        <v>1.4188682206907199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>0.4</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>1.4918246976412703</v>
+      </c>
+      <c r="C35">
+        <v>1.4909020506249899</v>
+      </c>
+      <c r="D35">
+        <v>1.4915852170011199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>0.45</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="1"/>
+        <v>1.5683121854901689</v>
+      </c>
+      <c r="D36">
+        <v>1.5680289593724299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>0.499999999999999</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="1"/>
+        <v>1.6487212707001264</v>
+      </c>
+      <c r="C37">
+        <v>1.64744676594062</v>
+      </c>
+      <c r="D37">
+        <v>1.6483904435402601</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>0.54999999999999905</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="1"/>
+        <v>1.7332530178673935</v>
+      </c>
+      <c r="D38">
+        <v>1.7328704537716999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>0.6</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="1"/>
+        <v>1.8221188003905089</v>
+      </c>
+      <c r="C39">
+        <v>1.82042867636439</v>
+      </c>
+      <c r="D39">
+        <v>1.8216800645275</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>0.65</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="1"/>
+        <v>1.9155408290138962</v>
+      </c>
+      <c r="D40">
+        <v>1.91504116783454</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>0.7</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="1"/>
+        <v>2.0137527074704766</v>
+      </c>
+      <c r="C41">
+        <v>2.0115736873826502</v>
+      </c>
+      <c r="D41">
+        <v>2.0131870276860599</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>0.75</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="1"/>
+        <v>2.1170000166126748</v>
+      </c>
+      <c r="D42">
+        <v>2.1163628628549702</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>0.8</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="1"/>
+        <v>2.2255409284924679</v>
+      </c>
+      <c r="C43">
+        <v>2.2227889245578201</v>
+      </c>
+      <c r="D43">
+        <v>2.2248264595762901</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>0.85</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="1"/>
+        <v>2.3396468519259908</v>
+      </c>
+      <c r="D44">
+        <v>2.3388488156295701</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>0.9</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="1"/>
+        <v>2.4596031111569499</v>
+      </c>
+      <c r="C45">
+        <v>2.4561817616364001</v>
+      </c>
+      <c r="D45">
+        <v>2.4587148174305899</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>0.95</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="1"/>
+        <v>2.585709659315846</v>
+      </c>
+      <c r="D46">
+        <v>2.5847239518239</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="1"/>
+        <v>2.7182818284590451</v>
+      </c>
+      <c r="C47">
+        <v>2.71408084660822</v>
+      </c>
+      <c r="D47">
+        <v>2.7171910543548798</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <f>EXP(A51)</f>
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>0.05</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ref="B52:B71" si="2">EXP(A52)</f>
+        <v>1.0512710963760241</v>
+      </c>
+      <c r="D52">
+        <v>1.0512710937500001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53">
         <v>0.1</v>
       </c>
-      <c r="L4">
+      <c r="B53">
         <f t="shared" si="2"/>
         <v>1.1051709180756477</v>
       </c>
-      <c r="M4">
+      <c r="C53">
         <v>1.1051708333333301</v>
       </c>
-      <c r="N4">
+      <c r="D53">
         <v>1.1051709125543201</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A54">
         <v>0.15</v>
       </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>1.1618342427282831</v>
-      </c>
-      <c r="D5">
-        <v>1.1576249999999999</v>
-      </c>
-      <c r="F5">
-        <v>0.15</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>1.1618342427282831</v>
-      </c>
-      <c r="I5">
-        <v>1.16176429882812</v>
-      </c>
-      <c r="K5">
-        <v>0.15</v>
-      </c>
-      <c r="L5">
+      <c r="B54">
         <f t="shared" si="2"/>
         <v>1.1618342427282831</v>
       </c>
-      <c r="N5">
+      <c r="D54">
         <v>1.1618342340216601</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55">
         <v>0.2</v>
       </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>1.2214027581601699</v>
-      </c>
-      <c r="C6">
-        <v>1.21</v>
-      </c>
-      <c r="D6">
-        <v>1.21550625</v>
-      </c>
-      <c r="F6">
-        <v>0.2</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>1.2214027581601699</v>
-      </c>
-      <c r="H6">
-        <v>1.221025</v>
-      </c>
-      <c r="I6">
-        <v>1.2213047191430599</v>
-      </c>
-      <c r="K6">
-        <v>0.2</v>
-      </c>
-      <c r="L6">
+      <c r="B55">
         <f t="shared" si="2"/>
         <v>1.2214027581601699</v>
       </c>
-      <c r="M6">
+      <c r="C55">
         <v>1.2214025708506899</v>
       </c>
-      <c r="N6">
+      <c r="D55">
         <v>1.2214027459561501</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56">
         <v>0.25</v>
       </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>1.2840254166877414</v>
-      </c>
-      <c r="D7">
-        <v>1.2762815624999999</v>
-      </c>
-      <c r="F7">
-        <v>0.25</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>1.2840254166877414</v>
-      </c>
-      <c r="I7">
-        <v>1.28389658599914</v>
-      </c>
-      <c r="K7">
-        <v>0.25</v>
-      </c>
-      <c r="L7">
+      <c r="B56">
         <f t="shared" si="2"/>
         <v>1.2840254166877414</v>
       </c>
-      <c r="N7">
+      <c r="D56">
         <v>1.28402540065057</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57">
         <v>0.3</v>
       </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>1.3498588075760032</v>
-      </c>
-      <c r="C8">
-        <v>1.331</v>
-      </c>
-      <c r="D8">
-        <v>1.340095640625</v>
-      </c>
-      <c r="F8">
-        <v>0.3</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>1.3498588075760032</v>
-      </c>
-      <c r="H8">
-        <v>1.349232625</v>
-      </c>
-      <c r="I8">
-        <v>1.3496962860316</v>
-      </c>
-      <c r="K8">
-        <v>0.3</v>
-      </c>
-      <c r="L8">
+      <c r="B57">
         <f t="shared" si="2"/>
         <v>1.3498588075760032</v>
       </c>
-      <c r="M8">
+      <c r="C57">
         <v>1.34985849706253</v>
       </c>
-      <c r="N8">
+      <c r="D57">
         <v>1.3498587873447101</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A9">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A58">
         <v>0.35</v>
       </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>1.4190675485932571</v>
-      </c>
-      <c r="D9">
-        <v>1.40710042265625</v>
-      </c>
-      <c r="F9">
-        <v>0.35</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>1.4190675485932571</v>
-      </c>
-      <c r="I9">
-        <v>1.4188682206907199</v>
-      </c>
-      <c r="K9">
-        <v>0.35</v>
-      </c>
-      <c r="L9">
+      <c r="B58">
         <f t="shared" si="2"/>
         <v>1.4190675485932571</v>
       </c>
-      <c r="N9">
+      <c r="D58">
         <v>1.41906752377992</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A59">
         <v>0.4</v>
       </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>1.4918246976412703</v>
-      </c>
-      <c r="C10">
-        <v>1.4641</v>
-      </c>
-      <c r="D10">
-        <v>1.4774554437890599</v>
-      </c>
-      <c r="F10">
-        <v>0.4</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>1.4918246976412703</v>
-      </c>
-      <c r="H10">
-        <v>1.4909020506249899</v>
-      </c>
-      <c r="I10">
-        <v>1.4915852170011199</v>
-      </c>
-      <c r="K10">
-        <v>0.4</v>
-      </c>
-      <c r="L10">
+      <c r="B59">
         <f t="shared" si="2"/>
         <v>1.4918246976412703</v>
       </c>
-      <c r="M10">
+      <c r="C59">
         <v>1.49182424008068</v>
       </c>
-      <c r="N10">
+      <c r="D59">
         <v>1.49182466782922</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A11">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A60">
         <v>0.45</v>
       </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>1.5683121854901689</v>
-      </c>
-      <c r="D11">
-        <v>1.55132821597851</v>
-      </c>
-      <c r="F11">
-        <v>0.45</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>1.5683121854901689</v>
-      </c>
-      <c r="I11">
-        <v>1.5680289593724299</v>
-      </c>
-      <c r="K11">
-        <v>0.45</v>
-      </c>
-      <c r="L11">
+      <c r="B60">
         <f t="shared" si="2"/>
         <v>1.5683121854901689</v>
       </c>
-      <c r="N11">
+      <c r="D60">
         <v>1.5683121502320601</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A12">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A61">
         <v>0.499999999999999</v>
       </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>1.6487212707001264</v>
-      </c>
-      <c r="C12">
-        <v>1.6105100000000001</v>
-      </c>
-      <c r="D12">
-        <v>1.62889462677744</v>
-      </c>
-      <c r="F12">
-        <v>0.499999999999999</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>1.6487212707001264</v>
-      </c>
-      <c r="H12">
-        <v>1.64744676594062</v>
-      </c>
-      <c r="I12">
-        <v>1.6483904435402601</v>
-      </c>
-      <c r="K12">
-        <v>0.499999999999999</v>
-      </c>
-      <c r="L12">
+      <c r="B61">
         <f t="shared" si="2"/>
         <v>1.6487212707001264</v>
       </c>
-      <c r="M12">
+      <c r="C61">
         <v>1.64872063859683</v>
       </c>
-      <c r="N12">
+      <c r="D61">
         <v>1.64872122951587</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A13">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A62">
         <v>0.54999999999999905</v>
       </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>1.7332530178673935</v>
-      </c>
-      <c r="D13">
-        <v>1.71033935811631</v>
-      </c>
-      <c r="F13">
-        <v>0.54999999999999905</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>1.7332530178673935</v>
-      </c>
-      <c r="I13">
-        <v>1.7328704537716999</v>
-      </c>
-      <c r="K13">
-        <v>0.54999999999999905</v>
-      </c>
-      <c r="L13">
+      <c r="B62">
         <f t="shared" si="2"/>
         <v>1.7332530178673935</v>
       </c>
-      <c r="N13">
+      <c r="D62">
         <v>1.7332529702419901</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A63">
         <v>0.6</v>
       </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>1.8221188003905089</v>
-      </c>
-      <c r="C14">
-        <v>1.7715609999999999</v>
-      </c>
-      <c r="D14">
-        <v>1.7958563260221201</v>
-      </c>
-      <c r="F14">
-        <v>0.6</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>1.8221188003905089</v>
-      </c>
-      <c r="H14">
-        <v>1.82042867636439</v>
-      </c>
-      <c r="I14">
-        <v>1.8216800645275</v>
-      </c>
-      <c r="K14">
-        <v>0.6</v>
-      </c>
-      <c r="L14">
+      <c r="B63">
         <f t="shared" si="2"/>
         <v>1.8221188003905089</v>
       </c>
-      <c r="M14">
+      <c r="C63">
         <v>1.8221179620919301</v>
       </c>
-      <c r="N14">
+      <c r="D63">
         <v>1.82211874577174</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A15">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A64">
         <v>0.65</v>
       </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>1.9155408290138962</v>
-      </c>
-      <c r="D15">
-        <v>1.88564914232323</v>
-      </c>
-      <c r="F15">
-        <v>0.65</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>1.9155408290138962</v>
-      </c>
-      <c r="I15">
-        <v>1.91504116783454</v>
-      </c>
-      <c r="K15">
-        <v>0.65</v>
-      </c>
-      <c r="L15">
+      <c r="B64">
         <f t="shared" si="2"/>
         <v>1.9155408290138962</v>
       </c>
-      <c r="N15">
+      <c r="D64">
         <v>1.9155407668098301</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A16">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A65">
         <v>0.7</v>
       </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>2.0137527074704766</v>
-      </c>
-      <c r="C16">
-        <v>1.9487171000000001</v>
-      </c>
-      <c r="D16">
-        <v>1.97993159943939</v>
-      </c>
-      <c r="F16">
-        <v>0.7</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
-        <v>2.0137527074704766</v>
-      </c>
-      <c r="H16">
-        <v>2.0115736873826502</v>
-      </c>
-      <c r="I16">
-        <v>2.0131870276860599</v>
-      </c>
-      <c r="K16">
-        <v>0.7</v>
-      </c>
-      <c r="L16">
+      <c r="B65">
         <f t="shared" si="2"/>
         <v>2.0137527074704766</v>
       </c>
-      <c r="M16">
+      <c r="C65">
         <v>2.0137516265967701</v>
       </c>
-      <c r="N16">
+      <c r="D65">
         <v>2.0137526370468901</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A17">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A66">
         <v>0.75</v>
       </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>2.1170000166126748</v>
-      </c>
-      <c r="D17">
-        <v>2.0789281794113599</v>
-      </c>
-      <c r="F17">
-        <v>0.75</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="1"/>
-        <v>2.1170000166126748</v>
-      </c>
-      <c r="I17">
-        <v>2.1163628628549702</v>
-      </c>
-      <c r="K17">
-        <v>0.75</v>
-      </c>
-      <c r="L17">
+      <c r="B66">
         <f t="shared" si="2"/>
         <v>2.1170000166126748</v>
       </c>
-      <c r="N17">
+      <c r="D66">
         <v>2.1169999372902302</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A18">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A67">
         <v>0.8</v>
       </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>2.2255409284924679</v>
-      </c>
-      <c r="C18">
-        <v>2.1435888099999998</v>
-      </c>
-      <c r="D18">
-        <v>2.1828745883819298</v>
-      </c>
-      <c r="F18">
-        <v>0.8</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
-        <v>2.2255409284924679</v>
-      </c>
-      <c r="H18">
-        <v>2.2227889245578201</v>
-      </c>
-      <c r="I18">
-        <v>2.2248264595762901</v>
-      </c>
-      <c r="K18">
-        <v>0.8</v>
-      </c>
-      <c r="L18">
+      <c r="B67">
         <f t="shared" si="2"/>
         <v>2.2255409284924679</v>
       </c>
-      <c r="M18">
+      <c r="C67">
         <v>2.2255395632923101</v>
       </c>
-      <c r="N18">
+      <c r="D67">
         <v>2.2255408395437799</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A19">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A68">
         <v>0.85</v>
       </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>2.3396468519259908</v>
-      </c>
-      <c r="D19">
-        <v>2.29201831780103</v>
-      </c>
-      <c r="F19">
-        <v>0.85</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="1"/>
-        <v>2.3396468519259908</v>
-      </c>
-      <c r="I19">
-        <v>2.3388488156295701</v>
-      </c>
-      <c r="K19">
-        <v>0.85</v>
-      </c>
-      <c r="L19">
+      <c r="B68">
         <f t="shared" si="2"/>
         <v>2.3396468519259908</v>
       </c>
-      <c r="N19">
+      <c r="D68">
         <v>2.33964675257248</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A20">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69">
         <v>0.9</v>
       </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>2.4596031111569499</v>
-      </c>
-      <c r="C20">
-        <v>2.3579476910000001</v>
-      </c>
-      <c r="D20">
-        <v>2.4066192336910799</v>
-      </c>
-      <c r="F20">
-        <v>0.9</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="1"/>
-        <v>2.4596031111569499</v>
-      </c>
-      <c r="H20">
-        <v>2.4561817616364001</v>
-      </c>
-      <c r="I20">
-        <v>2.4587148174305899</v>
-      </c>
-      <c r="K20">
-        <v>0.9</v>
-      </c>
-      <c r="L20">
+      <c r="B69">
         <f t="shared" si="2"/>
         <v>2.4596031111569499</v>
       </c>
-      <c r="M20">
+      <c r="C69">
         <v>2.4596014137800699</v>
       </c>
-      <c r="N20">
+      <c r="D69">
         <v>2.4596030005655098</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A21">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A70">
         <v>0.95</v>
       </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>2.585709659315846</v>
-      </c>
-      <c r="D21">
-        <v>2.5269501953756301</v>
-      </c>
-      <c r="F21">
-        <v>0.95</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="1"/>
-        <v>2.585709659315846</v>
-      </c>
-      <c r="I21">
-        <v>2.5847239518239</v>
-      </c>
-      <c r="K21">
-        <v>0.95</v>
-      </c>
-      <c r="L21">
+      <c r="B70">
         <f t="shared" si="2"/>
         <v>2.585709659315846</v>
       </c>
-      <c r="N21">
+      <c r="D70">
         <v>2.5857095365952798</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A22">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A71">
         <v>1</v>
       </c>
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>2.7182818284590451</v>
-      </c>
-      <c r="C22">
-        <v>2.5937424601000001</v>
-      </c>
-      <c r="D22">
-        <v>2.65329770514442</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="1"/>
-        <v>2.7182818284590451</v>
-      </c>
-      <c r="H22">
-        <v>2.71408084660822</v>
-      </c>
-      <c r="I22">
-        <v>2.7171910543548798</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
+      <c r="B71">
         <f t="shared" si="2"/>
         <v>2.7182818284590451</v>
       </c>
-      <c r="M22">
+      <c r="C71">
         <v>2.71827974413516</v>
       </c>
-      <c r="N22">
+      <c r="D71">
         <v>2.7182816926563298</v>
       </c>
     </row>
@@ -1780,5 +3403,6 @@
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>